--- a/data/trans_camb/P16A_n_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R2-Provincia-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>2.952691025225465</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.582112398752432</v>
+        <v>9.582112398752427</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.168160964189728</v>
+        <v>0.3787476220287204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.041676365715784</v>
+        <v>-5.163110013798086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.745812714777243</v>
+        <v>3.122819524297751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.367092106753701</v>
+        <v>5.920025646875327</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.511333456633967</v>
+        <v>-3.150898724398655</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.309968294468475</v>
+        <v>2.461132830343725</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.269957691918688</v>
+        <v>5.959872137816745</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.068523165082996</v>
+        <v>-2.53259203306145</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.929157354924609</v>
+        <v>4.418629028204136</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.59582719030139</v>
+        <v>14.19304316717995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.737640353795867</v>
+        <v>7.537485739028016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.79274983792195</v>
+        <v>16.00489848920118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.12905212531114</v>
+        <v>22.73064694337397</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.83462648795354</v>
+        <v>11.63778795261964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.52200006621598</v>
+        <v>16.65601707031197</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.99415552575784</v>
+        <v>16.73201080661573</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.872753824390443</v>
+        <v>8.331472603704579</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.59563394901208</v>
+        <v>14.14384802518114</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1352081561843346</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4387793164668958</v>
+        <v>0.4387793164668956</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.0473747087245345</v>
+        <v>0.02221554454282355</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2556883632432557</v>
+        <v>-0.2547590111688139</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.130043901222389</v>
+        <v>0.1700284654500652</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2063294117160661</v>
+        <v>0.1908473142897751</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1144697131147169</v>
+        <v>-0.1045132036985485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07023583066864687</v>
+        <v>0.07439924511485178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2169512049093521</v>
+        <v>0.2395968100718255</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08984293802070047</v>
+        <v>-0.09420087448327677</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1939978978190531</v>
+        <v>0.1698562274470329</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.079400320622208</v>
+        <v>1.049796638148343</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5571097191147665</v>
+        <v>0.5266260198215248</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.167250951778076</v>
+        <v>1.233084904004424</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.064867335899114</v>
+        <v>1.01661806479745</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5357576289508632</v>
+        <v>0.5112427258428189</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7204180108378015</v>
+        <v>0.7539612815099027</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.841815650584786</v>
+        <v>0.8511580624112768</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3938707033435677</v>
+        <v>0.4277700071727435</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7786056069931772</v>
+        <v>0.7354288336491985</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>9.18810867170694</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11.67085331046658</v>
+        <v>11.67085331046657</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>11.00093453048061</v>
@@ -869,7 +869,7 @@
         <v>6.703438859364031</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.331270538918311</v>
+        <v>7.331270538918305</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.6171915709343</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.234034446505719</v>
+        <v>7.084386044837434</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.401521628270552</v>
+        <v>4.374927473930113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.757312680928636</v>
+        <v>6.666566251961514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.874226471772492</v>
+        <v>5.11511905497427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.177902528980694</v>
+        <v>0.9597250557907696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.668795795312026</v>
+        <v>2.13320320134192</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.131240167053071</v>
+        <v>7.91116715484984</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.071691267567438</v>
+        <v>4.27719777851823</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.497037323233577</v>
+        <v>5.882600906672466</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.82875191355804</v>
+        <v>17.47367312527095</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.5763996828825</v>
+        <v>14.05440135724457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.46079005823864</v>
+        <v>17.25954545424405</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.06290107021932</v>
+        <v>17.34894305323477</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.4469633401499</v>
+        <v>12.68475094191695</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.79094099071307</v>
+        <v>13.01492824527548</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.25407943673485</v>
+        <v>15.73486702193606</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.80541593704672</v>
+        <v>12.14841817855221</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.59195071990428</v>
+        <v>13.57534009914196</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6666470623599297</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.8467836366165655</v>
+        <v>0.8467836366165651</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3586130785917844</v>
@@ -974,7 +974,7 @@
         <v>0.2185215119540677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.238987832412442</v>
+        <v>0.2389878324124418</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5204467397567871</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4360632686395774</v>
+        <v>0.4263278581561809</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2695733564332446</v>
+        <v>0.2720550550188922</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.401569811835476</v>
+        <v>0.4191169144378025</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1426268176444672</v>
+        <v>0.1559727847117334</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03970952588027452</v>
+        <v>0.02840224186826329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05108474679960746</v>
+        <v>0.06344260034389926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2923914448890386</v>
+        <v>0.3269651827692737</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1250050048499176</v>
+        <v>0.1756350605580895</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2336283721978311</v>
+        <v>0.2409177189462688</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.563058764635344</v>
+        <v>1.474244813841645</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.269092915415738</v>
+        <v>1.211401084601667</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.499521870134547</v>
+        <v>1.512875232214496</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.629348159493451</v>
+        <v>0.6195633255302905</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4530434400321369</v>
+        <v>0.4553410109682406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4653537787048256</v>
+        <v>0.4727517270143686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7417739131593695</v>
+        <v>0.7688820490655474</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5726621931195137</v>
+        <v>0.5823300240377296</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6853053284273478</v>
+        <v>0.6573312828526855</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.561707246006051</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>17.16333106644351</v>
+        <v>17.16333106644349</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>15.57201737037463</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.542339321814665</v>
+        <v>7.14464816569012</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.08577403749483506</v>
+        <v>0.3562528221238044</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.8803972536521</v>
+        <v>13.06002421917454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.902605570519922</v>
+        <v>9.972256386118403</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.112416641965235</v>
+        <v>-4.522175754387026</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>10.53141468846208</v>
+        <v>11.07025766523829</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.44178630796439</v>
+        <v>10.59964809716663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.72920824051413</v>
+        <v>-0.4208702924302375</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.46626079459454</v>
+        <v>14.01935932317372</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.06765176777655</v>
+        <v>20.21799382157813</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.65844510953602</v>
+        <v>11.79070527628536</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.6822361127403</v>
+        <v>26.22018176231325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.10081303558404</v>
+        <v>25.30004301668127</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.906589355732942</v>
+        <v>9.082882377067085</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.0020237333441</v>
+        <v>23.760207840849</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>20.21216287012307</v>
+        <v>20.22311787442372</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.718953296747758</v>
+        <v>8.619312366586382</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.99727314697866</v>
+        <v>22.8155065128178</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.09672719410023116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6480681420793731</v>
+        <v>0.6480681420793725</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.7294381229068908</v>
@@ -1197,7 +1197,7 @@
         <v>0.1935767503279815</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8655113120040262</v>
+        <v>0.865511312004026</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.385372674210211</v>
+        <v>0.3700697289155322</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.002672209156827783</v>
+        <v>0.01336336490033064</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.642859123023155</v>
+        <v>0.6627156189206477</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3340308936657411</v>
+        <v>0.3298054736039795</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1378003706016275</v>
+        <v>-0.1545568657271781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3411798583833515</v>
+        <v>0.3631486968449187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4317404502252757</v>
+        <v>0.4448623393789058</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0307965056136426</v>
+        <v>-0.01747885013174595</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5514616233732428</v>
+        <v>0.5876398246995834</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.533823276265108</v>
+        <v>1.489975619842402</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8836198913616108</v>
+        <v>0.9307484212319554</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.995606198800426</v>
+        <v>2.000038441018498</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.054224015439932</v>
+        <v>1.083173771206002</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.432464591176511</v>
+        <v>0.3918491022778624</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.00276878507742</v>
+        <v>1.064378565201135</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.06826222977503</v>
+        <v>1.039855438888798</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.463400691539016</v>
+        <v>0.4491888751643189</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.203352090896392</v>
+        <v>1.201476243018419</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>12.32250964544111</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.34749832131352</v>
+        <v>13.34749832131353</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>10.07331086874318</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1452357998490237</v>
+        <v>0.5263033294435557</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.912963799885492</v>
+        <v>5.520951412199599</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.518761080259118</v>
+        <v>7.63977745558264</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.755309231533272</v>
+        <v>6.744559175015157</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.237690574586186</v>
+        <v>5.873019102345559</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.746649188017943</v>
+        <v>6.671915221915195</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.994189146855964</v>
+        <v>5.05504720374569</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.261748465507297</v>
+        <v>7.679009169688503</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.952563240105549</v>
+        <v>9.00002496019426</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.25110961661537</v>
+        <v>12.88976448101988</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.32783012686187</v>
+        <v>18.11373369427508</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.20418049704093</v>
+        <v>21.84503760221929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.93573230256014</v>
+        <v>20.65516753867648</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.53475503851491</v>
+        <v>19.56484299242176</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.19532056036512</v>
+        <v>19.68908075061785</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.54653146417335</v>
+        <v>14.6778555028673</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.93550463538879</v>
+        <v>16.95757758289148</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.97933651216768</v>
+        <v>19.18693112111368</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3865734571854647</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.418728710247453</v>
+        <v>0.4187287102474531</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4018686965666395</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.009536170899508419</v>
+        <v>0.02441400912180293</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2681504229010661</v>
+        <v>0.276843980257065</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3669714192345478</v>
+        <v>0.3636792925033779</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1625287584263901</v>
+        <v>0.1933309748940103</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1500090110326686</v>
+        <v>0.1632399712761447</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1863130227091699</v>
+        <v>0.190414600708596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1875886747932566</v>
+        <v>0.187601484866981</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2652386908217629</v>
+        <v>0.2785885966266035</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3189888794861691</v>
+        <v>0.3243312140223025</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7801046017565734</v>
+        <v>0.8525734754993226</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.181757217634245</v>
+        <v>1.265742015899383</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.370415734853203</v>
+        <v>1.431150941195859</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7099431246996188</v>
+        <v>0.7408944884239561</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6630843722258668</v>
+        <v>0.6894999092414732</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6701888123990868</v>
+        <v>0.6991218941012525</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6447496043644414</v>
+        <v>0.6487667230048773</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7272727749546732</v>
+        <v>0.7281280588222993</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8159555860356649</v>
+        <v>0.8567423479581028</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.15121122624216</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12.19819955843371</v>
+        <v>12.19819955843372</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>17.85074019877525</v>
@@ -1511,7 +1511,7 @@
         <v>8.71122690342685</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.729366387200042</v>
+        <v>6.729366387200048</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>15.02852834288197</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.787723687861342</v>
+        <v>4.433096051511312</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.389474236116762</v>
+        <v>-2.567653810785334</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.609099961927408</v>
+        <v>5.101038510416284</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.026370097003356</v>
+        <v>8.181064221544716</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.952773176979803</v>
+        <v>-0.3370558632241035</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.478884164104198</v>
+        <v>-2.577632086738726</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.446239449403262</v>
+        <v>8.284141637936957</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3916676767087859</v>
+        <v>0.4761341816802436</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.070035484053538</v>
+        <v>4.395844218210165</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.74977192933305</v>
+        <v>20.64260304205641</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.1712700336864</v>
+        <v>12.14999523458086</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.22601238989902</v>
+        <v>19.52564967439347</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26.58557308791619</v>
+        <v>26.6232553816663</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.05051104325889</v>
+        <v>18.57220646227875</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.55329116431166</v>
+        <v>14.67818516736052</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>21.55460736973955</v>
+        <v>21.49652569114943</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.43225314089369</v>
+        <v>13.28533647703343</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.0038063360048</v>
+        <v>15.52986350679699</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2680299470131019</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7875973066930386</v>
+        <v>0.787597306693039</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4974765360255361</v>
@@ -1616,7 +1616,7 @@
         <v>0.2427703801742955</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1875385470111005</v>
+        <v>0.1875385470111006</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5826501072462759</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2063905968609696</v>
+        <v>0.206133913490553</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1818305679620849</v>
+        <v>-0.1548362984095365</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2349035112684721</v>
+        <v>0.2521640647166182</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1937270107042192</v>
+        <v>0.1968971128112364</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04140857365705351</v>
+        <v>-0.01842435902162226</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06258558431717491</v>
+        <v>-0.0610709945462411</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2872819915513327</v>
+        <v>0.2844046729186863</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0109745677961578</v>
+        <v>0.0100547843944013</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1372780244114907</v>
+        <v>0.1486286043671121</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.695803655104491</v>
+        <v>1.693924642461237</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9219994131318979</v>
+        <v>1.038152744412413</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.600654070393486</v>
+        <v>1.672197710233438</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8633935119144217</v>
+        <v>0.8596565905041381</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5548131963207893</v>
+        <v>0.5978623424896073</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4739834215405953</v>
+        <v>0.4705111695559517</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9388095552570385</v>
+        <v>0.9631251106590206</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5285149664825882</v>
+        <v>0.5835182225118482</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6775715286170669</v>
+        <v>0.6924496292806175</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.023813060609818</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>15.05697313394649</v>
+        <v>15.05697313394647</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>14.4214253206433</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.086756354939476</v>
+        <v>7.253374735582151</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.772780417851425</v>
+        <v>-3.301438471499897</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11.60766736819761</v>
+        <v>11.86024261742631</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.279333301589143</v>
+        <v>6.671391101883692</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.227112311821384</v>
+        <v>-7.220649250906153</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.379671796829562</v>
+        <v>7.62941057861167</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>8.896378806963348</v>
+        <v>9.192678991194606</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.66597548780485</v>
+        <v>-3.25507859109045</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>11.72135501411503</v>
+        <v>11.72968173701958</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.94458276876979</v>
+        <v>22.46031763626796</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.502303182744921</v>
+        <v>10.21616985071477</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25.14449592561394</v>
+        <v>25.30303732855695</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23.58885835040635</v>
+        <v>22.12799428915293</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.767877236902619</v>
+        <v>8.881398436100039</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>22.23619760389479</v>
+        <v>22.18703332057692</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>19.75477889260089</v>
+        <v>19.66466042598777</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.104597788286005</v>
+        <v>7.595090327940033</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>21.83560150013445</v>
+        <v>21.4179872036725</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.03487662240640282</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5129221210200369</v>
+        <v>0.5129221210200359</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.6058948300966229</v>
@@ -1839,7 +1839,7 @@
         <v>0.08079149235414608</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.7016367742759246</v>
+        <v>0.7016367742759244</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.3138418453477669</v>
+        <v>0.3317148732602951</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1853981321431672</v>
+        <v>-0.1575966617131648</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5090938649397991</v>
+        <v>0.5360477580394547</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2081501744127379</v>
+        <v>0.21006010690153</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2253288029676066</v>
+        <v>-0.2204954563122657</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2179337034324275</v>
+        <v>0.2300152520863344</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3227706689923078</v>
+        <v>0.3481785757897587</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1415061374950799</v>
+        <v>-0.1242234016343366</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4363946653315513</v>
+        <v>0.435812751688438</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.419171283606449</v>
+        <v>1.571355090283788</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6202328808768059</v>
+        <v>0.7057733038299648</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.691295813536144</v>
+        <v>1.751681071042086</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9219571401827935</v>
+        <v>0.9038803613647407</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3514703013140675</v>
+        <v>0.3500284612561236</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.879333677432059</v>
+        <v>0.9214643328290144</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9242614383859137</v>
+        <v>0.9463899964150088</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3398918875319563</v>
+        <v>0.354916540820868</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.033149998997973</v>
+        <v>1.015237543227936</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.513170345882692</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>15.95332834613374</v>
+        <v>15.95332834613375</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>8.25238209259132</v>
@@ -1948,7 +1948,7 @@
         <v>2.672161628503933</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>17.23272817835639</v>
+        <v>17.2327281783564</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.951921473828365</v>
+        <v>2.402979696455036</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5287796018697751</v>
+        <v>-0.9636129103463351</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13.6564384891348</v>
+        <v>13.36016264010252</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.340229511024132</v>
+        <v>4.105554813627283</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.460474125566624</v>
+        <v>-3.448011986376762</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.60646576446195</v>
+        <v>11.64932997224757</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.707517753253752</v>
+        <v>4.409238245489655</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.616897070209609</v>
+        <v>-0.7784200714544909</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.59369660390606</v>
+        <v>13.83808488853143</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.16508997429177</v>
+        <v>11.20168860286793</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.450008260811616</v>
+        <v>8.121647353470877</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23.1450120341784</v>
+        <v>23.67217098874995</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.88729760671599</v>
+        <v>14.80682822747002</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.824895491702429</v>
+        <v>6.588630880640584</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>20.55953886747731</v>
+        <v>21.37963679917271</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.93873738362295</v>
+        <v>11.93256413963306</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.271811030386436</v>
+        <v>6.366915880150037</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.73023735914846</v>
+        <v>20.76924479766852</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.05331335009788762</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5620817125171971</v>
+        <v>0.5620817125171973</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3585980702773228</v>
@@ -2053,7 +2053,7 @@
         <v>0.1161158066482263</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7488290048906096</v>
+        <v>0.74882900489061</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.09863215389878012</v>
+        <v>0.1342975438321652</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0302146833877715</v>
+        <v>-0.04901473322190119</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6782468846660736</v>
+        <v>0.6800075361406573</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1419710239156773</v>
+        <v>0.1377543157174884</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1131684318092955</v>
+        <v>-0.1123120860443393</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3428307559884221</v>
+        <v>0.3717821974298275</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1911445092099229</v>
+        <v>0.1722752631631159</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.02533363168191763</v>
+        <v>-0.03273810882399158</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5480648360873164</v>
+        <v>0.56104711505462</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7264029825697857</v>
+        <v>0.7418166677480997</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5447935567010929</v>
+        <v>0.5372628496857192</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.517228117782773</v>
+        <v>1.574070157691872</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5693411307194204</v>
+        <v>0.5718042684276904</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2625677988016673</v>
+        <v>0.2604623499372061</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8094003933203008</v>
+        <v>0.8340152212488084</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.558673061058957</v>
+        <v>0.5510513809559867</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2860827751784993</v>
+        <v>0.3025335406145602</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9732331940585651</v>
+        <v>0.9930960203725669</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.100353355315567</v>
+        <v>-4.043233826423216</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.6930864578416994</v>
+        <v>-0.4054432791071654</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.418273568835162</v>
+        <v>-2.67945924034847</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.82788573725174</v>
+        <v>-3.988892620499106</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.3009755717258336</v>
+        <v>-0.07634454933585692</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.6138662230236801</v>
+        <v>-0.5070464407040334</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.573108331763469</v>
+        <v>-2.511850336694418</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.248673849188723</v>
+        <v>1.431434484641106</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.3661367792485313</v>
+        <v>-0.9274557435514638</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.713748754648738</v>
+        <v>4.604930285415006</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>8.871462412476472</v>
+        <v>8.507323001855758</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.896762652088307</v>
+        <v>5.409279275983845</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.4845767664442</v>
+        <v>5.692220640468696</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>10.12335836274261</v>
+        <v>10.17762752167397</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.165608707991495</v>
+        <v>8.251450070024156</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.785510989118734</v>
+        <v>3.805637137502642</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>7.947696762528879</v>
+        <v>8.006615322169978</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.119976609496055</v>
+        <v>5.72549924574892</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1802073449337167</v>
+        <v>-0.1723410957372786</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.03420300741105372</v>
+        <v>-0.01514183032295157</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1074415441718415</v>
+        <v>-0.1185395788225557</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1206420258640084</v>
+        <v>-0.1189247746654982</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.004703146312469491</v>
+        <v>-0.002398497259263385</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.01763170378940967</v>
+        <v>-0.0161577118029386</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.09477414016905206</v>
+        <v>-0.09439214832353865</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.04756514388986392</v>
+        <v>0.05171685329365721</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01366015349300294</v>
+        <v>-0.02258349551352345</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2592642078152471</v>
+        <v>0.2467668074093292</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4728322699746859</v>
+        <v>0.4589407628731885</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3046471747459756</v>
+        <v>0.2884381699955554</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1889071072624186</v>
+        <v>0.2030384952029229</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3618195377657775</v>
+        <v>0.3589887490617317</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2944989126538791</v>
+        <v>0.2917137075625538</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1555789868009775</v>
+        <v>0.1559848588865058</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3301690309837819</v>
+        <v>0.3237299003696484</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2537769400015165</v>
+        <v>0.238956162178957</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>5.488412264113957</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>12.16403363535548</v>
+        <v>12.16403363535549</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>10.21874009539218</v>
@@ -2367,7 +2367,7 @@
         <v>5.023867198973791</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>10.65713413978221</v>
+        <v>10.6571341397822</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>9.052289984357387</v>
@@ -2376,7 +2376,7 @@
         <v>5.289452673888811</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>11.46746768586551</v>
+        <v>11.46746768586552</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>5.822111808453808</v>
+        <v>5.705386763584781</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.553678277590502</v>
+        <v>3.402843403780857</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>10.10387049227954</v>
+        <v>9.951018925211407</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>7.959048259164014</v>
+        <v>7.904754031496941</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.708451048811938</v>
+        <v>2.740514601984045</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>8.632203157722019</v>
+        <v>8.520907051689031</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>7.563440864180168</v>
+        <v>7.486187951791267</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>3.573082776985144</v>
+        <v>3.733736951315461</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>9.9671147359534</v>
+        <v>9.816877952777132</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>9.844776808689598</v>
+        <v>10.04704678660134</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.411216457766344</v>
+        <v>7.439273723419708</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>14.23310160970584</v>
+        <v>14.18884403967007</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>12.46151612115392</v>
+        <v>12.48001318536901</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>7.501693921155689</v>
+        <v>7.16659596781779</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>12.75451469584172</v>
+        <v>12.80208792550874</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>10.71599189704621</v>
+        <v>10.70258474032143</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>6.932483339932634</v>
+        <v>6.878363915405204</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>12.90120071946508</v>
+        <v>12.88494393963244</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.314333182074243</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.6966603847272546</v>
+        <v>0.6966603847272549</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.3430766761215214</v>
@@ -2472,7 +2472,7 @@
         <v>0.1686677265308918</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.357795004425871</v>
+        <v>0.3577950044258709</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3816618922741307</v>
@@ -2481,7 +2481,7 @@
         <v>0.2230134606933027</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.4834904122761126</v>
+        <v>0.4834904122761128</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.3138283559053542</v>
+        <v>0.3129814217145261</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1909576744648331</v>
+        <v>0.1858510596789447</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5478280450994513</v>
+        <v>0.5418326113855176</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2573077578450207</v>
+        <v>0.2543931786546878</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.08651804124169697</v>
+        <v>0.08929425133289012</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2755697592515572</v>
+        <v>0.2751478830586321</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3098749652379146</v>
+        <v>0.3078126255184651</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1474435457388514</v>
+        <v>0.1526831930801745</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.4039844985158165</v>
+        <v>0.4023005380619922</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5901106215028546</v>
+        <v>0.6068048082089237</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4483097640261959</v>
+        <v>0.4531202289740998</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.8696258862498087</v>
+        <v>0.8751178166327547</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4344917300830659</v>
+        <v>0.4332594991855628</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2619210355362934</v>
+        <v>0.2497786906083209</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4449030206151153</v>
+        <v>0.4516245715583109</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4696826415713122</v>
+        <v>0.4695917959616306</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3037789161152037</v>
+        <v>0.2978742057806212</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5607900540805281</v>
+        <v>0.560888861177227</v>
       </c>
     </row>
     <row r="58">
